--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3370065.477666138</v>
+        <v>3474245.112117209</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7865233.983490889</v>
+        <v>7865233.983490888</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>127.4503987265494</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>320.9087236161697</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.4101550285419</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.48523805799958</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>145.0415535193458</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23.79925355567548</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1029,7 +1031,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.4348925031072</v>
+        <v>28.05561968189648</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>247.0916244150706</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>206.7521768102486</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>153.7665065845761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>148.434892503107</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>60.25690685266667</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>160.5457335223965</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>61.17550840396293</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>207.0793768444223</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>220.6346102953139</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>143.5476780877535</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33.58398714687277</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>239.8230115056624</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3001,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>91.87132188694</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>126.9420388308266</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>24.83266606353065</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>1.799772605716168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>85.71023095289448</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3712,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>90.48716302792783</v>
       </c>
       <c r="X40" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>202.8830562524805</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>103.780257294551</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>94.64226186542875</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1853.982617026599</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.020100086187</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D2" t="n">
-        <v>1485.020100086187</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E2" t="n">
-        <v>1099.231847487943</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>688.2459426983351</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066532</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2240.58245709072</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.7574741064773</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>2901.985150475377</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>2751.868511063042</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>2618.12087972108</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V4" t="n">
-        <v>898.1746441434379</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="W4" t="n">
-        <v>608.7574741064773</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="X4" t="n">
-        <v>608.7574741064773</v>
+        <v>3070.921333403284</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.7574741064773</v>
+        <v>3070.921333403284</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2034.604709474941</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1665.642192534529</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1307.376493927779</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>921.5882413295346</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>510.6023365399271</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.4463512838068</v>
+        <v>410.6772566376941</v>
       </c>
       <c r="C7" t="n">
-        <v>216.4463512838068</v>
+        <v>241.7410737097872</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>444.4359021818242</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>444.4359021818242</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>216.4463512838068</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.4463512838068</v>
+        <v>410.6772566376941</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.174438931363</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.211921990951</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.946223384201</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.157970785957</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>731.1720659963491</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>316.0996158413456</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4829,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.774278995485</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="9">
@@ -4987,25 +4989,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>765.567302197401</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>765.567302197401</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>765.567302197401</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>765.567302197401</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>476.1501321604404</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>248.1605812624231</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2389.15589967238</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>768.5380889459591</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>599.6019060180522</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>449.4852666057164</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>301.5721730233233</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>154.682225525413</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>154.682225525413</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.218446256326</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1236.801276219365</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>1008.811725321348</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.0191461778176</v>
+        <v>950.1865537761988</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>762.5477693179085</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5477693179085</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4311299055728</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5180363231797</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1987.891457765928</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1698.816231110126</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,31 +5530,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,19 +5749,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2052.064890853473</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>666.6476097656489</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6263,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876688</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>432.9862109052757</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0962634073653</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>118.9001641222453</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,16 +7162,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,25 +7189,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745237</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7360,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>1098.667160263527</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2333.297989183966</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.222762528164</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7727,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D46" t="n">
-        <v>594.8179559048574</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>80.03780599355719</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>91.59190980143146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.24553961896831</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>10.32607348286592</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>73.85777223953474</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>115.0314858713396</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>125.5341284403483</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>40.30478226780127</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>139.9994244361427</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="X40" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>15.70159709961425</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>42.65370535201815</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>45.65245098079514</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
@@ -26326,34 +26328,34 @@
         <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="J2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26445,19 +26447,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685757</v>
+        <v>-770811.7932685763</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590163</v>
+        <v>557932.9524590167</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590166</v>
       </c>
       <c r="E6" t="n">
-        <v>304029.0291101009</v>
+        <v>304029.0291101006</v>
       </c>
       <c r="F6" t="n">
-        <v>629441.4909174561</v>
+        <v>629441.4909174565</v>
       </c>
       <c r="G6" t="n">
-        <v>629441.4909174562</v>
+        <v>629441.490917456</v>
       </c>
       <c r="H6" t="n">
         <v>629441.4909174562</v>
       </c>
       <c r="I6" t="n">
-        <v>629441.4909174566</v>
+        <v>629441.490917456</v>
       </c>
       <c r="J6" t="n">
-        <v>411910.2885201789</v>
+        <v>411910.2885201786</v>
       </c>
       <c r="K6" t="n">
+        <v>629441.490917456</v>
+      </c>
+      <c r="L6" t="n">
+        <v>629441.4909174563</v>
+      </c>
+      <c r="M6" t="n">
+        <v>544386.4629819442</v>
+      </c>
+      <c r="N6" t="n">
         <v>629441.4909174561</v>
       </c>
-      <c r="L6" t="n">
-        <v>629441.4909174565</v>
-      </c>
-      <c r="M6" t="n">
-        <v>544386.4629819446</v>
-      </c>
-      <c r="N6" t="n">
-        <v>629441.490917456</v>
-      </c>
       <c r="O6" t="n">
-        <v>629441.4909174565</v>
+        <v>629441.4909174562</v>
       </c>
       <c r="P6" t="n">
-        <v>629441.4909174562</v>
+        <v>629441.4909174561</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>227.2326428941336</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>90.0130020372838</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.02380761802723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>229.6524052658284</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>265.8801721341077</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>345.9318471227936</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1805805151051914</v>
+        <v>120.5598533363159</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27825,22 +27827,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>47.5161399722499</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>121.0000816598863</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28059,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>36.00251874686583</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>137.7769457025059</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28330,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28387,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-9.135549459772717e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -30280,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31619,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31844,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>305.5427724581375</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31999,7 +32001,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
         <v>867.846407116256</v>
@@ -32075,22 +32077,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968498</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,22 +33025,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33049,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>223.6976288294628</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>211.7351844430274</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,13 +34368,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0567753070492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -35267,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1903400640646</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>165.560998372116</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35647,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35723,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748315</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36697,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>81.10138438501835</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>73.18080466315317</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,22 +38095,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>469.7150632237159</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3474245.112117209</v>
+        <v>3470232.502103216</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>315.0833133550115</v>
       </c>
       <c r="D2" t="n">
-        <v>127.4503987265494</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>132.4101550285419</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>83.96461411416385</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>145.0415535193458</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>184.4530101301301</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1031,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>28.05561968189648</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>279.849813699945</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>206.7521768102486</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>141.7614152959628</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>148.434892503107</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>60.25690685266667</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710069</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>63.16281301712711</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>207.0793768444223</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790582</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T22" t="n">
-        <v>143.5476780877535</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>239.8230115056624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.7302028825775</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.87132188694</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>126.9420388308266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>85.71023095289448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>90.48716302792783</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534457</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.8830562524805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>94.64226186542875</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796261</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392144</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3070.921333403284</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="C4" t="n">
-        <v>2901.985150475377</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D4" t="n">
-        <v>2751.868511063042</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>2618.12087972108</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.23093222317</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.23093222317</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.23093222317</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>836.0742642887265</v>
       </c>
       <c r="V4" t="n">
-        <v>3070.921333403284</v>
+        <v>836.0742642887265</v>
       </c>
       <c r="W4" t="n">
-        <v>3070.921333403284</v>
+        <v>836.0742642887265</v>
       </c>
       <c r="X4" t="n">
-        <v>3070.921333403284</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="Y4" t="n">
-        <v>3070.921333403284</v>
+        <v>608.0847133907091</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2034.604709474941</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1665.642192534529</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1307.376493927779</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>921.5882413295346</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>510.6023365399271</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474941</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410.6772566376941</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>241.7410737097872</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>631.4698357812242</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>631.4698357812242</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>410.6772566376941</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1843.809051073444</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1485.543352466693</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1099.755099868449</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>688.7691950788414</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2752.944093773487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2752.944093773487</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2752.944093773487</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2362.804761797675</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>453.9210898955492</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>307.0311423976389</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>549.1861555360877</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>294.5016673302007</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>294.5016673302007</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961527</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622705</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177312</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177312</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459591</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180522</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057164</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>301.5721730233233</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>154.682225525413</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>154.682225525413</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919729</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761988</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1987.891457765928</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1698.816231110126</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>926.7250219692613</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192474</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5530,31 +5530,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,34 +5767,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2052.064890853473</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1762.98966419767</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1508.305175991783</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,40 +6001,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.8178837532264</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.455899481483</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>963.4663485834661</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.4663485834661</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2104.263230450254</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2104.263230450254</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1849.578742244367</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1560.161572207407</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1111.379442165859</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.955258982919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.385853854706</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.396302956689</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.603723813159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232838</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>961.2628027535235</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>336.3048548543961</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>189.4149073564858</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>189.4149073564858</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>80.03780599355719</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>116.6691671648102</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>10.32607348286592</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>46.45968844823008</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T22" t="n">
-        <v>73.85777223953474</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>46.69998683092865</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>10.85445046951727</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5341284403483</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>40.30478226780127</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>139.9994244361427</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>62.35543909864913</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.70159709961425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>45.65245098079514</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>681144.543869563</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405253</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405257</v>
-      </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26447,13 +26447,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685763</v>
+        <v>-770811.7932685759</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590165</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590166</v>
+        <v>557932.9524590165</v>
       </c>
       <c r="E6" t="n">
-        <v>304029.0291101006</v>
+        <v>303681.6498557442</v>
       </c>
       <c r="F6" t="n">
-        <v>629441.4909174565</v>
+        <v>629094.1116630993</v>
       </c>
       <c r="G6" t="n">
-        <v>629441.490917456</v>
+        <v>629094.1116630993</v>
       </c>
       <c r="H6" t="n">
-        <v>629441.4909174562</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="I6" t="n">
-        <v>629441.490917456</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="J6" t="n">
-        <v>411910.2885201786</v>
+        <v>411562.9092658219</v>
       </c>
       <c r="K6" t="n">
-        <v>629441.490917456</v>
+        <v>629094.111663099</v>
       </c>
       <c r="L6" t="n">
-        <v>629441.4909174563</v>
+        <v>629094.1116630994</v>
       </c>
       <c r="M6" t="n">
-        <v>544386.4629819442</v>
+        <v>544039.0837275872</v>
       </c>
       <c r="N6" t="n">
-        <v>629441.4909174561</v>
+        <v>629094.111663099</v>
       </c>
       <c r="O6" t="n">
-        <v>629441.4909174562</v>
+        <v>629094.1116630991</v>
       </c>
       <c r="P6" t="n">
-        <v>629441.4909174561</v>
+        <v>629094.111663099</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50.1895784159961</v>
       </c>
       <c r="D2" t="n">
-        <v>227.2326428941336</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>14.02380761802723</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>202.247224091449</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>265.8801721341077</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>66.5421618287719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>120.5598533363159</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>131.0719119535084</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>121.0000816598863</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>2.993599618358019</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>137.7769457025059</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28383,13 +28383,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-5.105708987335293e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-9.135549459772717e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-5.105708987335293e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31621,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581375</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>714.9328157424941</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>407.2177391203963</v>
       </c>
       <c r="N18" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32709,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>223.6976288294628</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>483.3274636075166</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.560998372116</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>291.8458072502408</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>572.7987818204757</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316015</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>265.083705198378</v>
       </c>
       <c r="N18" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>81.10138438501835</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>161.999986601618</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>340.7312191630721</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3470232.502103216</v>
+        <v>3471993.032406001</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>315.0833133550115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>384.737267368513</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657056</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>83.96461411416385</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>19.52918235370533</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>77.12676199618107</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>184.4530101301301</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386362</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>279.849813699945</v>
+        <v>370.8689488784687</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>89.4592871184214</v>
       </c>
       <c r="H10" t="n">
-        <v>141.7614152959628</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803355</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.16281301712711</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,13 +1903,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>170.9457618790582</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.7302028825775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91555826189102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.2292142534457</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>170.9457618790577</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.833343223196</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1270.470666346906</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>912.2049677401556</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>912.2049677401556</v>
       </c>
       <c r="F2" t="n">
         <v>523.5814653477182</v>
@@ -4330,19 +4330,19 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.0847133907091</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>608.0847133907091</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>457.9680739783734</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>836.0742642887265</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>836.0742642887265</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>836.0742642887265</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>608.0847133907091</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.0847133907091</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1626.299101484276</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1257.336584543864</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>899.0708859371136</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>899.0708859371136</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3028.99898128765</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.936093944079</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.771568013855</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C8" t="n">
-        <v>1843.809051073444</v>
+        <v>806.3384156653785</v>
       </c>
       <c r="D8" t="n">
-        <v>1485.543352466693</v>
+        <v>448.072717058628</v>
       </c>
       <c r="E8" t="n">
-        <v>1099.755099868449</v>
+        <v>448.072717058628</v>
       </c>
       <c r="F8" t="n">
-        <v>688.7691950788414</v>
+        <v>441.1272163094246</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4813,13 +4813,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>2599.371408077977</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="C10" t="n">
-        <v>751.9508228902781</v>
+        <v>699.120390387711</v>
       </c>
       <c r="D10" t="n">
-        <v>601.8341834779424</v>
+        <v>549.0037509753753</v>
       </c>
       <c r="E10" t="n">
-        <v>453.9210898955492</v>
+        <v>401.0906573929822</v>
       </c>
       <c r="F10" t="n">
-        <v>307.0311423976389</v>
+        <v>254.2007098950718</v>
       </c>
       <c r="G10" t="n">
-        <v>307.0311423976389</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4992,22 +4992,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,16 +5117,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
         <v>1373.553594266881</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D13" t="n">
         <v>484.8112968429802</v>
@@ -5193,7 +5193,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961527</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192474</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111704</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,22 +5533,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
         <v>1336.913939313768</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5889,73 +5889,73 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474266</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650335</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9333885650335</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6621,31 +6621,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6837,55 +6837,55 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7089,37 +7089,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2254.869721166297</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>576.8388927589092</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>758.4873575891489</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>39.7088805469528</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.6691671648102</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>46.45968844823008</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.35543909864913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>46.45968844823054</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681144.5438695629</v>
+        <v>681144.5438695628</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.543869563</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681144.5438695628</v>
+        <v>681144.5438695629</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.604713255</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
@@ -26429,7 +26429,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26438,19 +26438,19 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189203</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685759</v>
+        <v>-770811.7932685754</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590165</v>
+        <v>557932.9524590158</v>
       </c>
       <c r="D6" t="n">
         <v>557932.9524590165</v>
       </c>
       <c r="E6" t="n">
-        <v>303681.6498557442</v>
+        <v>303994.2911846651</v>
       </c>
       <c r="F6" t="n">
-        <v>629094.1116630993</v>
+        <v>629406.752992021</v>
       </c>
       <c r="G6" t="n">
-        <v>629094.1116630993</v>
+        <v>629406.7529920207</v>
       </c>
       <c r="H6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920202</v>
       </c>
       <c r="I6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920206</v>
       </c>
       <c r="J6" t="n">
-        <v>411562.9092658219</v>
+        <v>411875.5505947432</v>
       </c>
       <c r="K6" t="n">
-        <v>629094.111663099</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="L6" t="n">
-        <v>629094.1116630994</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="M6" t="n">
-        <v>544039.0837275872</v>
+        <v>544351.725056509</v>
       </c>
       <c r="N6" t="n">
-        <v>629094.111663099</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="O6" t="n">
-        <v>629094.1116630991</v>
+        <v>629406.7529920205</v>
       </c>
       <c r="P6" t="n">
-        <v>629094.111663099</v>
+        <v>629406.7529920206</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>50.1895784159961</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>22.13877837319848</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>202.247224091449</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.1804730353318</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>329.7492837455304</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>66.5421618287719</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>14.88174980530007</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>131.0719119535084</v>
+        <v>40.05277677498475</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>76.56652114060682</v>
       </c>
       <c r="H10" t="n">
-        <v>2.993599618358019</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-5.105708987335293e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-5.105708987335293e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>714.9328157424941</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>407.2177391203963</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770457</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>572.7987818204757</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>265.083705198378</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
